--- a/media/data.xlsx
+++ b/media/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-16110" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" state="visible" r:id="rId1"/>
@@ -394,15 +394,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.90625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -444,6 +444,16 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>Junichi Tamada</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yukiko Miura</t>
         </is>
       </c>
     </row>
@@ -458,13 +468,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
@@ -663,84 +673,6 @@
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -757,168 +689,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK22"/>
+  <dimension ref="A1:AU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>10-01</t>
+          <t>10-01(Tue)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>10-02</t>
+          <t>10-02(Wed)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>10-03</t>
+          <t>10-03(Thu)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>10-04</t>
+          <t>10-04(Fri)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>10-05</t>
+          <t>10-07(Mon)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>10-06</t>
+          <t>10-08(Tue)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>10-07</t>
+          <t>10-09(Wed)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>10-08</t>
+          <t>10-10(Thu)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>10-09</t>
+          <t>10-11(Fri)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>10-10</t>
+          <t>10-14(Mon)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>10-11</t>
+          <t>10-15(Tue)</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>10-16(Wed)</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>10-17(Thu)</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>10-18(Fri)</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>10-21(Mon)</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>10-22(Tue)</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>10-23(Wed)</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>10-24(Thu)</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>10-25(Fri)</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>10-20</t>
+          <t>10-28(Mon)</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>10-21</t>
+          <t>10-29(Tue)</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>10-22</t>
+          <t>10-30(Wed)</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>10-23</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>10-24</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>10-25</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>10-30</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>10-31</t>
+          <t>10-31(Thu)</t>
         </is>
       </c>
     </row>
@@ -1154,86 +1046,6 @@
         </is>
       </c>
       <c r="AU2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
@@ -1243,34 +1055,9 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1283,31 +1070,11 @@
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1357,36 +1124,6 @@
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1400,163 +1137,118 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI22"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>11-01</t>
+          <t>11-01(Fri)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>11-02</t>
+          <t>11-04(Mon)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>11-03</t>
+          <t>11-05(Tue)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>11-04</t>
+          <t>11-06(Wed)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>11-05</t>
+          <t>11-07(Thu)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>11-06</t>
+          <t>11-08(Fri)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>11-07</t>
+          <t>11-11(Mon)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>11-08</t>
+          <t>11-12(Tue)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>11-09</t>
+          <t>11-13(Wed)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>11-10</t>
+          <t>11-14(Thu)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>11-15(Fri)</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>11-18(Mon)</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>11-19(Tue)</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>11-20(Wed)</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>11-21(Thu)</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>11-22(Fri)</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>11-17</t>
+          <t>11-25(Mon)</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>11-26(Tue)</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>11-19</t>
+          <t>11-27(Wed)</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>11-28(Thu)</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>11-21</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>11-22</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>11-28</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>11-29</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>11-30</t>
+          <t>11-29(Fri)</t>
         </is>
       </c>
     </row>
@@ -1772,96 +1464,6 @@
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
@@ -1935,36 +1537,6 @@
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1978,168 +1550,123 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK22"/>
+  <dimension ref="A1:AS16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>12-01</t>
+          <t>12-02(Mon)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>12-02</t>
+          <t>12-03(Tue)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>12-03</t>
+          <t>12-04(Wed)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>12-04</t>
+          <t>12-05(Thu)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>12-05</t>
+          <t>12-06(Fri)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>12-06</t>
+          <t>12-09(Mon)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>12-07</t>
+          <t>12-10(Tue)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>12-08</t>
+          <t>12-11(Wed)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>12-09</t>
+          <t>12-12(Thu)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>12-10</t>
+          <t>12-13(Fri)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>12-11</t>
+          <t>12-16(Mon)</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>12-17(Tue)</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>12-13</t>
+          <t>12-18(Wed)</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>12-19(Thu)</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>12-15</t>
+          <t>12-20(Fri)</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>12-16</t>
+          <t>12-23(Mon)</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>12-17</t>
+          <t>12-24(Tue)</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>12-25(Wed)</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>12-26(Thu)</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>12-27(Fri)</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>12-21</t>
+          <t>12-30(Mon)</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>12-24</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>12-25</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>12-26</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>12-27</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>12-28</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>12-29</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>12-30</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>12-31</t>
+          <t>12-31(Tue)</t>
         </is>
       </c>
     </row>
@@ -2365,96 +1892,6 @@
         </is>
       </c>
       <c r="AS2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
@@ -2528,36 +1965,6 @@
     <row r="16">
       <c r="A16" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/media/data.xlsx
+++ b/media/data.xlsx
@@ -1,74 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tomtominternational-my.sharepoint.com/personal/koji_nishi_tomtom_com/Documents/ShareFolder/ttj/officeattendance/media/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_38650898B4F0121524D1140823D6F87AE183E78F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8ED6B6A-C4EB-4370-A0AF-70161638C782}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" sheetId="1" r:id="rId1"/>
-    <sheet name="Seats" sheetId="2" r:id="rId2"/>
+    <sheet name="Employees" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Seats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2024-10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2024-11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2024-12" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Koji Nishi</t>
-  </si>
-  <si>
-    <t>Atsushi Nagao</t>
-  </si>
-  <si>
-    <t>Junichi Tamada</t>
-  </si>
-  <si>
-    <t>Yukiko Miura</t>
-  </si>
-  <si>
-    <t>Monitors</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,21 +50,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -367,56 +389,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Koji Nishi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Atsushi Nagao</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Junichi Tamada</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yukiko Miura</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -425,184 +463,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col width="9" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Monitors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Keyboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AU16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>10-01(Tue)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>10-02(Wed)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>10-03(Thu)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>10-04(Fri)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>10-07(Mon)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>10-08(Tue)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>10-09(Wed)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>10-10(Thu)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>10-11(Fri)</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>10-14(Mon)</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>10-15(Tue)</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>10-16(Wed)</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>10-17(Thu)</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>10-18(Fri)</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>10-21(Mon)</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>10-22(Tue)</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>10-23(Wed)</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>10-24(Thu)</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>10-25(Fri)</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>10-28(Mon)</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>10-29(Tue)</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>10-30(Wed)</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>10-31(Thu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SeatID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AQ16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>11-01(Fri)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>11-04(Mon)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>11-05(Tue)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>11-06(Wed)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>11-07(Thu)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>11-08(Fri)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>11-11(Mon)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>11-12(Tue)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>11-13(Wed)</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>11-14(Thu)</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>11-15(Fri)</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>11-18(Mon)</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>11-19(Tue)</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>11-20(Wed)</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>11-21(Thu)</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>11-22(Fri)</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>11-25(Mon)</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>11-26(Tue)</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>11-27(Wed)</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>11-28(Thu)</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>11-29(Fri)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SeatID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>12-02(Mon)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>12-03(Tue)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>12-04(Wed)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>12-05(Thu)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>12-06(Fri)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>12-09(Mon)</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>12-10(Tue)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>12-11(Wed)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>12-12(Thu)</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>12-13(Fri)</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>12-16(Mon)</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>12-17(Tue)</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>12-18(Wed)</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>12-19(Thu)</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>12-20(Fri)</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>12-23(Mon)</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>12-24(Tue)</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>12-25(Wed)</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>12-26(Thu)</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>12-27(Fri)</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>12-30(Mon)</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>12-31(Tue)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SeatID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>